--- a/data/trans_dic/P71_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.3709808804564798</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.07481637849757623</v>
+        <v>0.07481637849757626</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1488305992506341</v>
@@ -685,7 +685,7 @@
         <v>0.3137706032121418</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.09572631261348162</v>
+        <v>0.09572631261348163</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.127079531913843</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07518510021938597</v>
+        <v>0.07111738598244648</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3405230048196587</v>
+        <v>0.3330682791986244</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3172647025954818</v>
+        <v>0.3036063581809418</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05000937039322731</v>
+        <v>0.04772548178622032</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1098196572061986</v>
+        <v>0.1061793666135016</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3313439541209275</v>
+        <v>0.3336392828002258</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.260225234294021</v>
+        <v>0.2591505955787901</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0672830101042047</v>
+        <v>0.06480054075699195</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09718237500109138</v>
+        <v>0.1003957008912563</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3524408685354052</v>
+        <v>0.3510477436009526</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.302312640814282</v>
+        <v>0.3002570467365611</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0666228193556152</v>
+        <v>0.06518349257692493</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1495869121133023</v>
+        <v>0.1478329878555212</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.452381110572904</v>
+        <v>0.4546068804414395</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4375806715952882</v>
+        <v>0.4326246152845768</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1051039174169667</v>
+        <v>0.1035884649904294</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2033712517229796</v>
+        <v>0.2051615137193481</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4593881014046378</v>
+        <v>0.4647425356925394</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3756297027039565</v>
+        <v>0.3636638139730516</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1368580426850363</v>
+        <v>0.1316374448754003</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.155618637029226</v>
+        <v>0.1602074422448275</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4382882069696794</v>
+        <v>0.441413093411645</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3859117462147374</v>
+        <v>0.3798327093981431</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1099798165821559</v>
+        <v>0.1113665813381049</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2064226470329519</v>
+        <v>0.2104948623551149</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4937620067555275</v>
+        <v>0.4866830764132664</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3610746978622345</v>
+        <v>0.3551566864471931</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09260613474439637</v>
+        <v>0.09528015918348791</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3058764339815512</v>
+        <v>0.3088270141916878</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5181473437835636</v>
+        <v>0.5175931260056694</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3792932576418439</v>
+        <v>0.3748152124398182</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1142276244387781</v>
+        <v>0.1137374403289184</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2699700853579515</v>
+        <v>0.2689970314179677</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5131911150974535</v>
+        <v>0.515699653288437</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3796707513991204</v>
+        <v>0.3816232897619827</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1127728797573091</v>
+        <v>0.1138712727947687</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.287496135771652</v>
+        <v>0.2903353452672948</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5843807807708388</v>
+        <v>0.5761473647562563</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4468941269919672</v>
+        <v>0.4450820992874914</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1691713748473304</v>
+        <v>0.1674124683246574</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3947563248554259</v>
+        <v>0.392400319432295</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6069735770129928</v>
+        <v>0.6067844217629359</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4649767389248801</v>
+        <v>0.4597858954448148</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1644095167947632</v>
+        <v>0.1673280658052</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3291147963550108</v>
+        <v>0.3269602999230635</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.580812912924436</v>
+        <v>0.580778243494993</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4447906685518289</v>
+        <v>0.4421671043730545</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1573424555849791</v>
+        <v>0.1582160063512723</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1213376317943235</v>
+        <v>0.1254930797871218</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1194771377600109</v>
+        <v>0.1220626564201151</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1959280962476365</v>
+        <v>0.2020088904174815</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1271658148400741</v>
+        <v>0.1259062622080538</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2124099136006581</v>
+        <v>0.2108837631080829</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1041478910855727</v>
+        <v>0.1093379170987281</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2757520653857114</v>
+        <v>0.2784491354885787</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1674107646556643</v>
+        <v>0.1687639058189606</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1784343161502406</v>
+        <v>0.1797221420723635</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1237767540169807</v>
+        <v>0.1260580968418493</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2531636745707871</v>
+        <v>0.2484338297458884</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1565135911933586</v>
+        <v>0.1579022160055123</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2082399644541798</v>
+        <v>0.2106538635729078</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2061068166692671</v>
+        <v>0.2046825238510027</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.294103718506492</v>
+        <v>0.2955299153112816</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2099278496406249</v>
+        <v>0.2120003051528667</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3034874361971536</v>
+        <v>0.3028875459050973</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.183747970033061</v>
+        <v>0.189736286576362</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3772628296232432</v>
+        <v>0.3824598457478691</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2460129217028016</v>
+        <v>0.2418971766845697</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.242614531351036</v>
+        <v>0.2437124030362552</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.178907560630945</v>
+        <v>0.1797608524635313</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3232535932035958</v>
+        <v>0.3218204022346309</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2114617683355108</v>
+        <v>0.2123704446453457</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.3464310969680566</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1734322672615144</v>
+        <v>0.1734322672615145</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09021112028313738</v>
+        <v>0.08915971030513554</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2071995970942174</v>
+        <v>0.2090414705395404</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2570137941764584</v>
+        <v>0.2579581721886055</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09356701290095785</v>
+        <v>0.09513342862304117</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1884961460616789</v>
+        <v>0.1888724926374069</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2155332377131827</v>
+        <v>0.2152240557575897</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3366719925822158</v>
+        <v>0.3340251980017673</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1659753255839064</v>
+        <v>0.1684544603345705</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1490942961897392</v>
+        <v>0.1501902846919732</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2214329770017864</v>
+        <v>0.2270422520774307</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3097328291038907</v>
+        <v>0.3102196750669913</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1435381830192845</v>
+        <v>0.1443882824480756</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1595850889247752</v>
+        <v>0.155576878786888</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.303633104673706</v>
+        <v>0.302402942849235</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.354330025229582</v>
+        <v>0.352974537073362</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1923837397147512</v>
+        <v>0.1977432234005904</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2730757996030021</v>
+        <v>0.2752112353317741</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3111449912853133</v>
+        <v>0.3051860468692995</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4418324198779436</v>
+        <v>0.4385159069523548</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2472031727988316</v>
+        <v>0.2525006066003392</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2053299001892421</v>
+        <v>0.2051529864468289</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2911655361171221</v>
+        <v>0.2901187290309575</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3846038179102086</v>
+        <v>0.3814564976343895</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2086558409362401</v>
+        <v>0.2128799894679751</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.6384987476025139</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.0731798981482826</v>
+        <v>0.07317989814828262</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1067340680000016</v>
+        <v>0.105746534557303</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2765552456721343</v>
+        <v>0.2727964716085981</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5432788080157926</v>
+        <v>0.5439682994086751</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0429400233662705</v>
+        <v>0.04656021414903733</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1574458333272089</v>
+        <v>0.1597409310656875</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2974966022756294</v>
+        <v>0.2986147421901167</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5973738792568125</v>
+        <v>0.5967913809318141</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04963983081799543</v>
+        <v>0.05142188508051373</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1438244042878745</v>
+        <v>0.1450458173676357</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3042609415157676</v>
+        <v>0.3037457806701434</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5898263523247402</v>
+        <v>0.5942115563256121</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0548146414564164</v>
+        <v>0.05369713978368854</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2072464346806495</v>
+        <v>0.1999888776633089</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.405208561229966</v>
+        <v>0.406016773877848</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6812182850369992</v>
+        <v>0.6806831588465572</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1185313490555974</v>
+        <v>0.1137059798526097</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2744122439415124</v>
+        <v>0.2823039693919612</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4281476450449119</v>
+        <v>0.4280204093935919</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7231275666533121</v>
+        <v>0.7218637184928952</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1078835748182239</v>
+        <v>0.1070508001370063</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2186120513390663</v>
+        <v>0.221042527048886</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.393580500798217</v>
+        <v>0.4040963343731239</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6838127096294032</v>
+        <v>0.6854363998817716</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09862544880143342</v>
+        <v>0.09830540137095641</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1608154975906081</v>
+        <v>0.1562367150183779</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.12051750263105</v>
+        <v>0.1203115029225228</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1432523080760096</v>
+        <v>0.1359586885794916</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1020523397906329</v>
+        <v>0.1000553528657416</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2708798382993103</v>
+        <v>0.2726699013850526</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1133603114108007</v>
+        <v>0.1111406067020084</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1418150360022113</v>
+        <v>0.1433787981079629</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1273313046837299</v>
+        <v>0.1261886208585365</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.229663659674279</v>
+        <v>0.22830952629791</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1297171752954379</v>
+        <v>0.1309497691001383</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1484884058144305</v>
+        <v>0.1537928579564083</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1236157763542275</v>
+        <v>0.1206917184111019</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2622892634509109</v>
+        <v>0.2594777428215433</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2090253133036489</v>
+        <v>0.2144197595032541</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2419858827810332</v>
+        <v>0.2416535775903065</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1787240845873605</v>
+        <v>0.1778197012414997</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.382234487382916</v>
+        <v>0.3843909878393394</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2008960057667384</v>
+        <v>0.1943535038120991</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2426245073141357</v>
+        <v>0.2378653732343634</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1977863486028195</v>
+        <v>0.2026215727063828</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3033865666243264</v>
+        <v>0.3009550716174093</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1945352974220337</v>
+        <v>0.1878057619580007</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2177036271942069</v>
+        <v>0.2250528033184177</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1749087705383156</v>
+        <v>0.1765107498458339</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.3052115183761202</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1209562220786259</v>
+        <v>0.1209562220786258</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.3455221366973744</v>
@@ -1513,7 +1513,7 @@
         <v>0.3192979671822942</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.1343067093405235</v>
+        <v>0.1343067093405236</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1691505887224209</v>
+        <v>0.1669826175222799</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1796152393312483</v>
+        <v>0.1816869969265285</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2690364878243945</v>
+        <v>0.2672572771559092</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09463263896199203</v>
+        <v>0.09346483872976957</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3088112642525497</v>
+        <v>0.3054465572743059</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2043583895935218</v>
+        <v>0.2051156634847932</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2939468179883934</v>
+        <v>0.297540630622763</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1254065477004099</v>
+        <v>0.1248605672757442</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2471977652686353</v>
+        <v>0.2503951472247175</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2001434766669083</v>
+        <v>0.2041422358259121</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2923549025853441</v>
+        <v>0.2922175327152047</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1170663102796634</v>
+        <v>0.1164972958308828</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2402379187232587</v>
+        <v>0.2340461019762701</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2471168133933085</v>
+        <v>0.2495789932861069</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3455706624005433</v>
+        <v>0.3433693458017767</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1506459310041445</v>
+        <v>0.1500951755024121</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3856622842160289</v>
+        <v>0.3809094213118849</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2744527271793697</v>
+        <v>0.2723753443109352</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3693152084973506</v>
+        <v>0.3679279760095011</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1705926885697188</v>
+        <v>0.1730983076524856</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3006029397615304</v>
+        <v>0.3017652782435159</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2461703486761391</v>
+        <v>0.2496172119891626</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3487704328448418</v>
+        <v>0.3455866691450749</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1524622887175266</v>
+        <v>0.1540326112327002</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.3292853047096732</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.2237852041724259</v>
+        <v>0.2237852041724258</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.158121344751853</v>
+        <v>0.1557848145517655</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.29673781301545</v>
+        <v>0.2963713856230815</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2982734435730202</v>
+        <v>0.2957657897632479</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1854269044438276</v>
+        <v>0.1845078691992759</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2193267169696256</v>
+        <v>0.2240407784316287</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3096770995576683</v>
+        <v>0.308534692466165</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2926229781293612</v>
+        <v>0.2989292896451338</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2053431715114995</v>
+        <v>0.2058268483615565</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1999565903578033</v>
+        <v>0.1996987764739292</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.3123678509874734</v>
+        <v>0.3111585386860298</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.3043944803709751</v>
+        <v>0.3046394516829394</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2037941171353574</v>
+        <v>0.2048740517411979</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2146207725701831</v>
+        <v>0.2136567819153545</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3654016403356688</v>
+        <v>0.3660684472254523</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.364809492826545</v>
+        <v>0.3683673571792447</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2472516586254852</v>
+        <v>0.2472640007947257</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2861640952255366</v>
+        <v>0.2864278456714765</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.376637689533931</v>
+        <v>0.3750985777586346</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3636896766818077</v>
+        <v>0.3624168730526979</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2584638572454698</v>
+        <v>0.2578819997194864</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2437796510210327</v>
+        <v>0.2436362577408023</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3620092709194577</v>
+        <v>0.361570663104074</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3519807013066868</v>
+        <v>0.3533380576511678</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.247180151876739</v>
+        <v>0.2456291842884365</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1661375860688604</v>
+        <v>0.1672216755585526</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2906467982394483</v>
+        <v>0.2903905478034928</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3186814587654283</v>
+        <v>0.3192984871535899</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1305771752612658</v>
+        <v>0.1302403486750901</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2624656905835934</v>
+        <v>0.26384362051667</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2990564639191026</v>
+        <v>0.3001012413198693</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3413284128898709</v>
+        <v>0.342630972257788</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1582031961928502</v>
+        <v>0.1575799114883717</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2199434528498186</v>
+        <v>0.2195193612301093</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2995189809956259</v>
+        <v>0.300251809043095</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.334256535229414</v>
+        <v>0.3343335167394599</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1476821080776039</v>
+        <v>0.1484511499309641</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1933209398755536</v>
+        <v>0.1947754577590402</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3220075191731135</v>
+        <v>0.3222115492250381</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3519660070048566</v>
+        <v>0.3518009977240096</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1560738651865175</v>
+        <v>0.1572629658655176</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2945932591776289</v>
+        <v>0.2934901523510872</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3312041501957175</v>
+        <v>0.3316702245341578</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3734421093541375</v>
+        <v>0.3750928488997676</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1807435181023281</v>
+        <v>0.1803316867074464</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2394166689381697</v>
+        <v>0.2400301997662136</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3225228860985103</v>
+        <v>0.3239997014749658</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3583264067718812</v>
+        <v>0.3587666103649736</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1653173067503195</v>
+        <v>0.1660665605953379</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20312</v>
+        <v>19213</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>100365</v>
+        <v>98168</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>92946</v>
+        <v>88944</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15886</v>
+        <v>15160</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>28311</v>
+        <v>27373</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>94483</v>
+        <v>95138</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>74609</v>
+        <v>74301</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>21266</v>
+        <v>20481</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>51308</v>
+        <v>53005</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>204377</v>
+        <v>203569</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>175242</v>
+        <v>174050</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>42220</v>
+        <v>41308</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>40412</v>
+        <v>39938</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>133334</v>
+        <v>133990</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>128193</v>
+        <v>126741</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>33386</v>
+        <v>32905</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>52429</v>
+        <v>52890</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>130995</v>
+        <v>132522</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>107697</v>
+        <v>104266</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>43255</v>
+        <v>41605</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>82160</v>
+        <v>84583</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>254159</v>
+        <v>255971</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>223701</v>
+        <v>220178</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>69696</v>
+        <v>70574</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>100075</v>
+        <v>102049</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>247628</v>
+        <v>244077</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>179819</v>
+        <v>176872</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>48480</v>
+        <v>49880</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>149940</v>
+        <v>151386</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>270813</v>
+        <v>270523</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>197687</v>
+        <v>195353</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>62215</v>
+        <v>61948</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>263221</v>
+        <v>262273</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>525594</v>
+        <v>528164</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>386963</v>
+        <v>388954</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>120460</v>
+        <v>121633</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>139380</v>
+        <v>140756</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>293074</v>
+        <v>288945</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>222558</v>
+        <v>221656</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>88562</v>
+        <v>87641</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>193508</v>
+        <v>192353</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>317238</v>
+        <v>317140</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>242344</v>
+        <v>239639</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>89547</v>
+        <v>91137</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>320888</v>
+        <v>318787</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>594851</v>
+        <v>594815</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>453334</v>
+        <v>450660</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>168068</v>
+        <v>169001</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>38010</v>
+        <v>39312</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>38594</v>
+        <v>39429</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>61285</v>
+        <v>63187</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>39749</v>
+        <v>39355</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>69848</v>
+        <v>69347</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>35414</v>
+        <v>37178</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>92063</v>
+        <v>92963</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>58796</v>
+        <v>59271</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>114572</v>
+        <v>115399</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>82071</v>
+        <v>83583</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>163709</v>
+        <v>160650</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>103891</v>
+        <v>104813</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>65233</v>
+        <v>65989</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>66577</v>
+        <v>66117</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>91993</v>
+        <v>92439</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>65619</v>
+        <v>66266</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>99798</v>
+        <v>99601</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>62480</v>
+        <v>64516</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>125953</v>
+        <v>127688</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>86401</v>
+        <v>84956</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>155782</v>
+        <v>156487</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>118625</v>
+        <v>119191</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>209033</v>
+        <v>208106</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>140365</v>
+        <v>140968</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>32186</v>
+        <v>31811</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>77048</v>
+        <v>77732</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>94819</v>
+        <v>95168</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>32942</v>
+        <v>33494</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>69729</v>
+        <v>69868</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>82808</v>
+        <v>82689</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>130076</v>
+        <v>129054</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>67772</v>
+        <v>68784</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>108347</v>
+        <v>109144</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>167415</v>
+        <v>171656</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>233937</v>
+        <v>234305</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>109146</v>
+        <v>109792</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>56937</v>
+        <v>55507</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>112907</v>
+        <v>112449</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>130722</v>
+        <v>130222</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>67732</v>
+        <v>69619</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>101016</v>
+        <v>101806</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>119542</v>
+        <v>117252</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>170706</v>
+        <v>169425</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>100939</v>
+        <v>103102</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>149214</v>
+        <v>149085</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>220137</v>
+        <v>219345</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>290486</v>
+        <v>288109</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>158661</v>
+        <v>161873</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>21324</v>
+        <v>21126</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>58259</v>
+        <v>57467</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>113683</v>
+        <v>113828</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>8807</v>
+        <v>9549</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>31682</v>
+        <v>32143</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>65328</v>
+        <v>65573</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>129903</v>
+        <v>129776</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>11229</v>
+        <v>11632</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>57674</v>
+        <v>58164</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>130908</v>
+        <v>130687</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>251685</v>
+        <v>253556</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>23642</v>
+        <v>23160</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>41404</v>
+        <v>39954</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>85361</v>
+        <v>85531</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>142548</v>
+        <v>142436</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>24310</v>
+        <v>23320</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>55218</v>
+        <v>56806</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>94017</v>
+        <v>93989</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>157248</v>
+        <v>156974</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>24405</v>
+        <v>24216</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>87664</v>
+        <v>88639</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>169338</v>
+        <v>173862</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>291790</v>
+        <v>292483</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>42538</v>
+        <v>42400</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>43232</v>
+        <v>42001</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>32905</v>
+        <v>32848</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>37266</v>
+        <v>35369</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>27626</v>
+        <v>27086</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>74189</v>
+        <v>74679</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>31625</v>
+        <v>31005</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>38732</v>
+        <v>39159</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>33522</v>
+        <v>33222</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>124642</v>
+        <v>123907</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>71604</v>
+        <v>72285</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>79183</v>
+        <v>82011</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>66008</v>
+        <v>64446</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>70512</v>
+        <v>69756</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>57070</v>
+        <v>58542</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>62951</v>
+        <v>62864</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>48382</v>
+        <v>48137</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>104687</v>
+        <v>105277</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>56045</v>
+        <v>54220</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>66264</v>
+        <v>64965</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>52071</v>
+        <v>53344</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>164652</v>
+        <v>163333</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>107384</v>
+        <v>103669</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>116092</v>
+        <v>120011</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>93397</v>
+        <v>94253</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>102254</v>
+        <v>100943</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>118807</v>
+        <v>120177</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>176346</v>
+        <v>175180</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>66689</v>
+        <v>65866</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>193736</v>
+        <v>191625</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>141795</v>
+        <v>142320</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>202919</v>
+        <v>205400</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>95368</v>
+        <v>94952</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>304517</v>
+        <v>308456</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>271256</v>
+        <v>276675</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>393451</v>
+        <v>393266</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>171524</v>
+        <v>170690</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>145227</v>
+        <v>141484</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>163456</v>
+        <v>165085</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>226512</v>
+        <v>225069</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>106163</v>
+        <v>105775</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>241949</v>
+        <v>238968</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>190430</v>
+        <v>188988</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>254948</v>
+        <v>253990</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>129730</v>
+        <v>131636</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>370306</v>
+        <v>371737</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>333636</v>
+        <v>338308</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>469375</v>
+        <v>465090</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>223386</v>
+        <v>225686</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>115855</v>
+        <v>114143</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>229343</v>
+        <v>229060</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>229588</v>
+        <v>227658</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>147408</v>
+        <v>146677</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>167949</v>
+        <v>171559</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>253398</v>
+        <v>252463</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>239298</v>
+        <v>244455</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>169862</v>
+        <v>170262</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>299624</v>
+        <v>299238</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>497023</v>
+        <v>495098</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>483224</v>
+        <v>483613</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>330589</v>
+        <v>332341</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>157252</v>
+        <v>156545</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>282412</v>
+        <v>282927</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>280802</v>
+        <v>283541</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>196556</v>
+        <v>196566</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>219130</v>
+        <v>219332</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>308189</v>
+        <v>306930</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>297414</v>
+        <v>296373</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>213804</v>
+        <v>213323</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>365291</v>
+        <v>365076</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>576009</v>
+        <v>575311</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>558767</v>
+        <v>560922</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>400969</v>
+        <v>398453</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>536762</v>
+        <v>540265</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>990857</v>
+        <v>989983</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1073090</v>
+        <v>1075168</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>454576</v>
+        <v>453404</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>870066</v>
+        <v>874633</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1059474</v>
+        <v>1063175</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1203794</v>
+        <v>1208388</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>584943</v>
+        <v>582638</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1439705</v>
+        <v>1436929</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>2082216</v>
+        <v>2087311</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>2304390</v>
+        <v>2304920</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1060166</v>
+        <v>1065686</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>624587</v>
+        <v>629286</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1097770</v>
+        <v>1098466</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1185169</v>
+        <v>1184613</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>543337</v>
+        <v>547477</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>976568</v>
+        <v>972911</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1173364</v>
+        <v>1175015</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1317053</v>
+        <v>1322874</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>668284</v>
+        <v>666761</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1567173</v>
+        <v>1571189</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>2242136</v>
+        <v>2252403</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>2470329</v>
+        <v>2473364</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1186764</v>
+        <v>1192142</v>
       </c>
     </row>
     <row r="40">
